--- a/raw_data/mapping/filename_to_entity_mapping.xlsx
+++ b/raw_data/mapping/filename_to_entity_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workarea\BA_Thesis_Git\BA_Thesis\raw_data\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1F133D-B03E-4DD7-8A44-D8C29A0FA50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3572B87-2D14-4F0A-8A4F-D9F401C0EF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="21100" xr2:uid="{02D723D8-FF1E-4A70-9FD3-8EA728494386}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{02D723D8-FF1E-4A70-9FD3-8EA728494386}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="117">
   <si>
     <t>BAM</t>
   </si>
@@ -448,8 +448,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C94FC467-EB4E-46D3-BC4C-3A4E64669029}" name="Tabelle1" displayName="Tabelle1" ref="A1:F61" totalsRowShown="0">
-  <autoFilter ref="A1:F61" xr:uid="{C94FC467-EB4E-46D3-BC4C-3A4E64669029}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C94FC467-EB4E-46D3-BC4C-3A4E64669029}" name="Tabelle1" displayName="Tabelle1" ref="A1:F62" totalsRowShown="0">
+  <autoFilter ref="A1:F62" xr:uid="{C94FC467-EB4E-46D3-BC4C-3A4E64669029}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{169AD145-9981-44BD-8E14-9E21073E9BB1}" name="file_name"/>
     <tableColumn id="2" xr3:uid="{35928193-8388-4B60-81E0-E5AD8766B228}" name="entity_name_direct_match"/>
@@ -779,22 +779,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B300932C-239B-4D2B-BCE0-9E7D5FBEB611}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="28.54296875" customWidth="1"/>
-    <col min="6" max="6" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.62890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="28.5234375" customWidth="1"/>
+    <col min="6" max="6" width="29.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -814,7 +814,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -822,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -833,7 +833,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -841,7 +841,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -849,7 +849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -857,7 +857,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -868,7 +868,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -876,7 +876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -884,12 +884,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -897,7 +897,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -905,7 +905,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -913,7 +913,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -924,7 +924,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -932,7 +932,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -943,12 +943,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -956,7 +956,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -964,7 +964,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -975,7 +975,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -983,7 +983,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -991,12 +991,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1311,43 +1311,51 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>59</v>
       </c>
     </row>
